--- a/SRS_Review_CheckList_GST_KHH_T07_v2.0.xlsx
+++ b/SRS_Review_CheckList_GST_KHH_T07_v2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Ket qua review SRS V2.0-KH_Hue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\RUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1832,34 +1832,79 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,51 +1924,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,17 +2232,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="51.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
@@ -2787,19 +2787,20 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1">
@@ -2943,7 +2944,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" s="46">
         <v>5</v>
       </c>
@@ -3202,14 +3203,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="2" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="49.375" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3218,37 +3219,37 @@
       <c r="B2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="72"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="72"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="66" t="s">
@@ -3261,74 +3262,74 @@
       <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="2:7" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
     </row>
     <row r="9" spans="2:7" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="59" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="95"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="2:7" ht="51" customHeight="1" thickBot="1">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="59" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="59"/>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="95"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="66" t="s">
@@ -3341,14 +3342,14 @@
       <c r="G11" s="68"/>
     </row>
     <row r="12" spans="2:7" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="58" t="s">
         <v>79</v>
       </c>
@@ -3356,51 +3357,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="38.25">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="2:7" ht="48" customHeight="1">
+      <c r="B13" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="73" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="85" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="78" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="38.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="86"/>
+    <row r="14" spans="2:7" ht="40.5" customHeight="1">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="39" thickBot="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="87"/>
+    <row r="15" spans="2:7" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="92" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="93"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="59" t="s">
         <v>89</v>
       </c>
@@ -3411,37 +3412,37 @@
       <c r="B18" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="72"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="72"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="89" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
       <c r="B21" s="66" t="s">
@@ -3454,104 +3455,104 @@
       <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="70"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="59"/>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="59"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="59"/>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="62" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="59"/>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="72"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="62" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="59"/>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="72"/>
+      <c r="G27" s="71"/>
     </row>
     <row r="28" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1">
       <c r="B29" s="66" t="s">
@@ -3564,14 +3565,14 @@
       <c r="G29" s="68"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="69" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="58" t="s">
         <v>79</v>
       </c>
@@ -3579,15 +3580,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="77.25" thickBot="1">
-      <c r="B31" s="71" t="s">
+    <row r="31" spans="2:7" ht="64.5" thickBot="1">
+      <c r="B31" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="71" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="72"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="59" t="s">
         <v>110</v>
       </c>
@@ -3596,15 +3597,15 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="25.5">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="79" t="s">
+      <c r="C32" s="75"/>
+      <c r="D32" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="85" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="78" t="s">
         <v>114</v>
       </c>
       <c r="G32" s="63" t="s">
@@ -3612,85 +3613,47 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="25.5">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="25.5">
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="63" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="38.25">
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="88"/>
       <c r="G35" s="63" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="87"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="59" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
     <mergeCell ref="B32:C36"/>
     <mergeCell ref="D32:E36"/>
     <mergeCell ref="F32:F36"/>
@@ -3705,6 +3668,44 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3715,14 +3716,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.875" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
